--- a/output/cron_linkedin_UP__DONE.xlsx
+++ b/output/cron_linkedin_UP__DONE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MESSAGE" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="DATA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MESSAGE" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DATA" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,10 +17,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,19 +55,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -457,43 +453,47 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed</t>
+          <t>Unnamed: 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Job Application: Henry Duong – Computer Systems Analyst, Mathematician, Actuary, Research Assistant, Teacher (College,University).</t>
+          <t xml:space="preserve">Job Application: Henry Duong – Computer Systems Analyst, Mathematician, Actuary, Research Assistant, Teacher (College,University).
+</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi @name,
-I am actively looking for a Computer Systems Analyst, Mathematician, Actuary, Research Assistant, Teacher (College,University) position.
-Please find my attached CV.
-Do you have a Computer Systems Analyst, Mathematician, Actuary, Research Assistant, Teacher (College,University) position?
-Thanks,
---
+          <t>Hi @name,
+I am actively looking for a Computer Systems Analyst, Mathematician, Actuary, Research Assistant, Teacher (College,University) position. 
+Please find my attached CV. 
+Do you have a Computer Systems Analyst, Mathematician, Actuary, Research Assistant, Teacher (College,University) position? 
+Thanks, 
+---
 Henry Universes, PhD, CFA, CAIA, PRM, ERP
-**20+ years of success in chair and management up to $40 billions**
+***20+ years of success in chair and management up to $40 billions***
 President, TAHK Foundation, Universal Connecting &amp; Media Solutions (nonprofit)
 Founder, QT-Group, #1 Financial Capital Services
 Phone: +1 (236) 4587899 | +84 (904) 917075
 https://scholar.google.com/citations?user=FtCo0vcAAAAJ&amp;hl 
-Let’s interact enjoying $900+ Trillion usd Options Leadership and be the first to operate volunteers for happily farming on Mars and successfully building there the most touristy and livable SunBlackHole city.
-</t>
+Let’s interact enjoying $900+ Trillion usd Options Leadership and be the first to operate volunteers for happily farming on Mars and successfully building there the most touristy and livable SunBlackHole city.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HenryUniverses_CV.pdf</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>Henry Duong_CV_CSA.pdf</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HenryUniverses_CV_CSA.pdf</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,371 +543,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Tran Nam</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/tran-nam-680b69276/</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>sent</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Cris</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>45068.65068787518</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sahba Ferdowsi</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/conciergedoc/</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>sent</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Cris</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>45064.71608322917</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>H.E. The Hon., Thomas A. Cellucci, PhD, MBA</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/thomascellucci/</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>sent</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Cris</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>45064.71795291667</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>John Houston</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/john-houston-848b58/</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>sent</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Cris</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>45064.719618125</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Dan Burton</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/danburton/</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>sent</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Cris</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>45064.72127178241</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Andre Durand</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/andredurand/</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>sent</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Cris</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>45064.72295996528</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Rice Powell</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/rice-powell/</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>sent</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Cris</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>45064.72471570602</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Ryan Denehy</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/ryandenehy/</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>sent</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Cris</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>45064.72636056713</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Jeannie (Ringo) Tarkenton (She/Her)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/jeannie-tarkenton-84803656/</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>sent</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Cris</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>45064.72803116898</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>John Mehas</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/john-mehas-ba9370203/</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>sent</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Cris</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>45064.72964017361</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Matthew Hunn 🏆</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/mdhtech/</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>sent</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Cris</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>45064.73120306713</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Manny Medina (He/Him)</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/medinism/</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>sent</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Cris</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>45064.73279899306</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Grégory Jannin, Ph.D.</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/gregoryjannin/</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>sent</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Cris</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>45064.73446910879</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Chris Kaufman</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/meetkauf/</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>sent</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Cris</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>45064.73616546296</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>